--- a/documents/Que Components.xlsx
+++ b/documents/Que Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_F25DC773A252ABDACC1048B1895B571E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D29D2E3-0C98-4275-8836-78193CCE0511}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_F25DC773A252ABDACC1048B1895B571E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC06416-957D-41E5-A842-EA9CF81F1A15}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="150" windowWidth="12210" windowHeight="15165" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="1545" windowWidth="13665" windowHeight="13860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Design" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Air Pumps</t>
   </si>
@@ -245,6 +245,105 @@
   </si>
   <si>
     <t>Minimal Device Current</t>
+  </si>
+  <si>
+    <t>Pump Type</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Housing Material</t>
+  </si>
+  <si>
+    <t>Environmentally Friendly</t>
+  </si>
+  <si>
+    <t>Smell</t>
+  </si>
+  <si>
+    <t>Impact Resistance</t>
+  </si>
+  <si>
+    <t>UV Resistance</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Dull/matte</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Manufacturability</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Biocompatablity</t>
+  </si>
+  <si>
+    <t>(1-10 scale)</t>
+  </si>
+  <si>
+    <t>Acrylic</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Paint/Finish Adhesion</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>Moderate (becomes brittle)</t>
+  </si>
+  <si>
+    <t>Heat Resistance</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Fatigue Resistance</t>
+  </si>
+  <si>
+    <t>Hypoallergenic</t>
+  </si>
+  <si>
+    <t>Low/Moderate</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t>PETG</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Titanium</t>
   </si>
 </sst>
 </file>
@@ -322,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +438,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -687,17 +789,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -859,6 +962,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>1</v>
@@ -1107,12 +1218,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1123,7 +1234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -1132,9 +1243,168 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1156,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87697FE-A659-4436-BB93-ADF423A8178C}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,7 +1444,7 @@
     <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -1221,18 +1491,18 @@
         <v>3.6</v>
       </c>
       <c r="F2" s="6">
-        <v>1010</v>
+        <v>800</v>
       </c>
       <c r="G2" s="6">
         <f>(E2/B2)*F2</f>
-        <v>727.19999999999993</v>
+        <v>576</v>
       </c>
       <c r="H2" s="6">
         <v>16</v>
       </c>
       <c r="I2" s="8">
         <f>G2/D2</f>
-        <v>21.388235294117646</v>
+        <v>16.941176470588236</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
